--- a/ocms/src/test/resources/DownloadedFiles/Adhoc Option Enhancement.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Adhoc Option Enhancement.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t xml:space="preserve">Promotion Number</t>
   </si>
@@ -130,13 +130,10 @@
     <t xml:space="preserve">WelcomeTetherfi.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">02/09/2019 14:27:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoliWishes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/09/2019 14:23:38</t>
+    <t xml:space="preserve">bengteth\palak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/09/2019 17:05:11</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -491,50 +488,50 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -543,13 +540,13 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -558,30 +555,30 @@
         <v>17</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -590,30 +587,30 @@
         <v>17</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
@@ -622,30 +619,30 @@
         <v>17</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
@@ -654,103 +651,71 @@
         <v>17</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
         <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Adhoc Option Enhancement.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Adhoc Option Enhancement.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t xml:space="preserve">Promotion Number</t>
   </si>
@@ -125,24 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">21/03/2019 15:06:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestAdhocUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WelcomeTetherfi.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/11/2019 15:42:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoliWishes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/11/2019 15:37:28</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -285,7 +267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -470,86 +452,86 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -569,19 +551,19 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -595,25 +577,25 @@
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
@@ -622,135 +604,71 @@
         <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Adhoc Option Enhancement.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Adhoc Option Enhancement.xlsx
@@ -109,69 +109,72 @@
     <t xml:space="preserve">TestIntent</t>
   </si>
   <si>
+    <t xml:space="preserve">qatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 16:56:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HappyTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 16:51:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuiij</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PinkPanther60.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/03/2019 16:45:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dgfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/03/2019 16:51:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/09/2019 14:17:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intentc</t>
+  </si>
+  <si>
     <t xml:space="preserve">QATETHERFI\Administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">03/08/2021 02:35:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HappyTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/08/2021 02:30:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yuiij</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PinkPanther60.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/03/2019 16:45:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dgfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/03/2019 16:51:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/09/2019 14:17:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intentc</t>
-  </si>
-  <si>
     <t xml:space="preserve">21/07/2021 09:00:02</t>
   </si>
   <si>
@@ -203,9 +206,6 @@
   </si>
   <si>
     <t xml:space="preserve">ihihijij</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
   </si>
   <si>
     <t xml:space="preserve">29/07/2020 09:46:44</t>
@@ -578,50 +578,50 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -636,13 +636,13 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>63</v>
